--- a/va_facility_data_2025-02-20/Indiana County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indiana%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Indiana County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indiana%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb40cc6a583194b569ade0d330d04a469"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bbc41be173b499e9054037617ac3317"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R69869703da83443199bae3132938d4ea"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R99f763a37ddc45908a374708e3b3991c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4d73b74ee8b0446dbcab3d14c41ddb41"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re4e2af4858724d4ea13598b5b93f8f40"/>
   </x:sheets>
 </x:workbook>
 </file>
